--- a/meta_stra_framwork/result/newzhongli/year/2019_pure.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2019_pure.xlsx
@@ -520,7 +520,7 @@
         <v>1.038271359556077</v>
       </c>
       <c r="C13">
-        <v>0.6666667692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>1.053024187823745</v>
       </c>
       <c r="C14">
-        <v>0.666666771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>1.058905848804806</v>
       </c>
       <c r="C15">
-        <v>0.6666667701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>1.046408333299531</v>
       </c>
       <c r="C16">
-        <v>1.0000001028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>1.046935654628867</v>
       </c>
       <c r="C17">
-        <v>0.6666667702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>1.051271858483181</v>
       </c>
       <c r="C18">
-        <v>0.6666667719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>1.055340345354908</v>
       </c>
       <c r="C19">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>1.053417650661788</v>
       </c>
       <c r="C20">
-        <v>0.6666667761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>1.052310275870182</v>
       </c>
       <c r="C21">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>1.044737130317326</v>
       </c>
       <c r="C22">
-        <v>0.6666667762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>1.048383760125584</v>
       </c>
       <c r="C23">
-        <v>0.6666667777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>1.062037326237481</v>
       </c>
       <c r="C24">
-        <v>0.6666667787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>1.076506212250891</v>
       </c>
       <c r="C25">
-        <v>0.6666667788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>1.083803528185325</v>
       </c>
       <c r="C26">
-        <v>0.6666667786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>1.103752499705917</v>
       </c>
       <c r="C27">
-        <v>0.6666667804999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>1.103196784151155</v>
       </c>
       <c r="C28">
-        <v>0.6666667791999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>1.088062661999197</v>
       </c>
       <c r="C29">
-        <v>1.0000001095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>1.11725598205485</v>
       </c>
       <c r="C30">
-        <v>0.6666667803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>1.117779247066268</v>
       </c>
       <c r="C31">
-        <v>1.0000001127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>1.120038616146579</v>
       </c>
       <c r="C32">
-        <v>0.6666667808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>1.116217564667848</v>
       </c>
       <c r="C33">
-        <v>0.6666667803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>1.137484839511782</v>
       </c>
       <c r="C34">
-        <v>0.6666667821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>1.20118931241355</v>
       </c>
       <c r="C35">
-        <v>0.6666667922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>1.193174028207635</v>
       </c>
       <c r="C36">
-        <v>0.6666667887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>1.198163299246742</v>
       </c>
       <c r="C37">
-        <v>0.6666667907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>1.19294281808631</v>
       </c>
       <c r="C38">
-        <v>0.6666667903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1.214461584641158</v>
       </c>
       <c r="C39">
-        <v>0.6666667943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1.228082700209712</v>
       </c>
       <c r="C40">
-        <v>0.6666667965999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1.238900900096946</v>
       </c>
       <c r="C41">
-        <v>0.6666667973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1.258310381334447</v>
       </c>
       <c r="C42">
-        <v>0.6666667975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1.260062710675012</v>
       </c>
       <c r="C43">
-        <v>1.0000001274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1.204669633187171</v>
       </c>
       <c r="C44">
-        <v>1.000000123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>1.304633531957701</v>
       </c>
       <c r="C62">
-        <v>0.6666668011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>1.316912006295405</v>
       </c>
       <c r="C63">
-        <v>0.6666668053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>1.316198094341842</v>
       </c>
       <c r="C64">
-        <v>0.6666668063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>1.314109090614086</v>
       </c>
       <c r="C65">
-        <v>0.6666668048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>1.315029874781466</v>
       </c>
       <c r="C66">
-        <v>0.666666804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>1.293949190561759</v>
       </c>
       <c r="C67">
-        <v>1.0000001354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>1.293409700278669</v>
       </c>
       <c r="C68">
-        <v>1.0000001342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>1.289012651655586</v>
       </c>
       <c r="C69">
-        <v>1.0000001369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>1.319763597791741</v>
       </c>
       <c r="C70">
-        <v>0.6666668125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>1.323625212449651</v>
       </c>
       <c r="C71">
-        <v>0.6666668102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>1.31838444969963</v>
       </c>
       <c r="C72">
-        <v>0.6666668101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1.326740464610654</v>
       </c>
       <c r="C73">
-        <v>0.6666668140000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1.304122435900036</v>
       </c>
       <c r="C74">
-        <v>1.0000001415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1.29744979292497</v>
       </c>
       <c r="C75">
-        <v>1.0000001407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1.298674800936198</v>
       </c>
       <c r="C76">
-        <v>0.6666668111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">

--- a/meta_stra_framwork/result/newzhongli/year/2019_pure.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2019_pure.xlsx
@@ -586,7 +586,7 @@
         <v>1.055340345354908</v>
       </c>
       <c r="C19">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>1.053417650661788</v>
       </c>
       <c r="C20">
-        <v>0.6666667761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>1.052310275870182</v>
       </c>
       <c r="C21">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>1.044737130317326</v>
       </c>
       <c r="C22">
-        <v>0.6666667762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>1.048383760125584</v>
       </c>
       <c r="C23">
-        <v>0.6666667777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>1.062037326237481</v>
       </c>
       <c r="C24">
-        <v>0.6666667787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>1.076506212250891</v>
       </c>
       <c r="C25">
-        <v>0.6666667788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>1.083803528185325</v>
       </c>
       <c r="C26">
-        <v>0.6666667786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>1.103752499705917</v>
       </c>
       <c r="C27">
-        <v>0.6666667804999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>1.103196784151155</v>
       </c>
       <c r="C28">
-        <v>0.6666667791999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>1.088062661999197</v>
       </c>
       <c r="C29">
-        <v>0.6666667762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>1.11725598205485</v>
       </c>
       <c r="C30">
-        <v>0.6666667803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>1.117779247066268</v>
       </c>
       <c r="C31">
-        <v>0.6666667794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>1.120038616146579</v>
       </c>
       <c r="C32">
-        <v>0.6666667808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>1.116217564667848</v>
       </c>
       <c r="C33">
-        <v>0.6666667803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>1.137484839511782</v>
       </c>
       <c r="C34">
-        <v>0.6666667821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>1.20118931241355</v>
       </c>
       <c r="C35">
-        <v>0.6666667922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>1.193174028207635</v>
       </c>
       <c r="C36">
-        <v>0.6666667887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>1.198163299246742</v>
       </c>
       <c r="C37">
-        <v>0.6666667907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>1.19294281808631</v>
       </c>
       <c r="C38">
-        <v>0.6666667903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1.214461584641158</v>
       </c>
       <c r="C39">
-        <v>0.6666667943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1.228082700209712</v>
       </c>
       <c r="C40">
-        <v>1.0000001299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1.238900900096946</v>
       </c>
       <c r="C41">
-        <v>1.0000001306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1.258310381334447</v>
       </c>
       <c r="C42">
-        <v>1.0000001308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1.260062710675012</v>
       </c>
       <c r="C43">
-        <v>1.0000001274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1.204669633187171</v>
       </c>
       <c r="C44">
-        <v>1.000000123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1.227843377452551</v>
       </c>
       <c r="C45">
-        <v>1.0000001232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1.241359028755238</v>
       </c>
       <c r="C46">
-        <v>1.0000001236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1.227827152180879</v>
       </c>
       <c r="C47">
-        <v>1.0000001237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1.213118943410309</v>
       </c>
       <c r="C48">
-        <v>1.0000001243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1.225717866863533</v>
       </c>
       <c r="C49">
-        <v>1.000000125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1.256006392757039</v>
       </c>
       <c r="C50">
-        <v>1.0000001291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1.253799755809661</v>
       </c>
       <c r="C51">
-        <v>1.0000001279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1.25366184100045</v>
       </c>
       <c r="C52">
-        <v>1.0000001275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1.258050776987697</v>
       </c>
       <c r="C53">
-        <v>1.0000001269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1.259141926507632</v>
       </c>
       <c r="C54">
-        <v>1.0000001259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1.23434971139298</v>
       </c>
       <c r="C55">
-        <v>1.0000001211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1.215719043195729</v>
       </c>
       <c r="C56">
-        <v>1.000000121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1.226111329701577</v>
       </c>
       <c r="C57">
-        <v>1.0000001238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1.214842878525447</v>
       </c>
       <c r="C58">
-        <v>1.0000001222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1.253710516815466</v>
       </c>
       <c r="C59">
-        <v>1.0000001282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>1.285998807442532</v>
       </c>
       <c r="C60">
-        <v>1.0000001318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>1.288619188817543</v>
       </c>
       <c r="C61">
-        <v>1.0000001336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>1.304633531957701</v>
       </c>
       <c r="C62">
-        <v>1.0000001344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>1.316912006295405</v>
       </c>
       <c r="C63">
-        <v>1.0000001386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>1.316198094341842</v>
       </c>
       <c r="C64">
-        <v>1.0000001396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>1.314109090614086</v>
       </c>
       <c r="C65">
-        <v>1.0000001381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>1.315029874781466</v>
       </c>
       <c r="C66">
-        <v>1.0000001373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>1.293949190561759</v>
       </c>
       <c r="C67">
-        <v>1.0000001354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>1.293409700278669</v>
       </c>
       <c r="C68">
-        <v>1.0000001342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>1.289012651655586</v>
       </c>
       <c r="C69">
-        <v>1.0000001369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>1.319763597791741</v>
       </c>
       <c r="C70">
-        <v>1.0000001458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>1.323625212449651</v>
       </c>
       <c r="C71">
-        <v>1.0000001435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>1.31838444969963</v>
       </c>
       <c r="C72">
-        <v>1.0000001434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1.326740464610654</v>
       </c>
       <c r="C73">
-        <v>1.0000001473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1.304122435900036</v>
       </c>
       <c r="C74">
-        <v>1.0000001415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1.29744979292497</v>
       </c>
       <c r="C75">
-        <v>1.0000001407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1.298674800936198</v>
       </c>
       <c r="C76">
-        <v>1.0000001444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>1.267124760170203</v>
       </c>
       <c r="C77">
-        <v>1.0000001413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>1.25194196220323</v>
       </c>
       <c r="C78">
-        <v>1.0000001379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>1.242247362379274</v>
       </c>
       <c r="C79">
-        <v>1.000000141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>1.248672569961343</v>
       </c>
       <c r="C80">
-        <v>1.0000001385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>1.178952577587221</v>
       </c>
       <c r="C81">
-        <v>1.0000001287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>1.187036819197741</v>
       </c>
       <c r="C82">
-        <v>1.0000001295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>1.173801053831395</v>
       </c>
       <c r="C83">
-        <v>1.000000126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>1.156437579351719</v>
       </c>
       <c r="C84">
-        <v>1.0000001216</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
